--- a/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
+++ b/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDE26C9-054D-41D0-B851-E90B169B0166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC9E951-77E1-4884-ACF1-F09712420E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Link Video học" sheetId="1" r:id="rId1"/>
     <sheet name="Id và Class." sheetId="2" r:id="rId2"/>
     <sheet name="Tạo ra SearchBox" sheetId="3" r:id="rId3"/>
     <sheet name="Cách để sử dụng Icon trong HTML" sheetId="4" r:id="rId4"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Thiết kế giao diện trước.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>https://www.youtube.com/watch?v=6ca7Roj_NfE&amp;list=PLPNLZmPSwSkc0jZwYBIxHjACQrq16lJQe</t>
   </si>
@@ -41,15 +38,6 @@
     <t>ivymoda.com</t>
   </si>
   <si>
-    <t>Link của File CSS.</t>
-  </si>
-  <si>
-    <t>Link của File JavaScript.</t>
-  </si>
-  <si>
-    <t>Link để lấy các icon.</t>
-  </si>
-  <si>
     <t>định danh thẻ bằng id hoặc Class.</t>
   </si>
   <si>
@@ -66,16 +54,33 @@
   </si>
   <si>
     <t>Sẽ đọc File CSS từ trên xuống dưới.</t>
+  </si>
+  <si>
+    <t>Quên mất không nghĩ ra, ghi chú luôn vào trong File Code cho dễ hiểu.</t>
+  </si>
+  <si>
+    <t>Cách xem Code của một trang Web:</t>
+  </si>
+  <si>
+    <t>sử dụng cho phòng PC đông dương 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,13 +103,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -125,15 +133,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -156,8 +164,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="600075"/>
-          <a:ext cx="8372475" cy="3886200"/>
+          <a:off x="152401" y="619125"/>
+          <a:ext cx="7181849" cy="3886200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -168,14 +176,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
@@ -192,7 +200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067050" y="2200274"/>
+          <a:off x="2600325" y="2200274"/>
           <a:ext cx="2543175" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -229,16 +237,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -253,8 +261,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4533900" y="2400300"/>
-          <a:ext cx="714375" cy="2905125"/>
+          <a:off x="3152775" y="2419350"/>
+          <a:ext cx="1057276" cy="2419350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -282,16 +290,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -314,8 +322,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="6705600"/>
+          <a:off x="7924800" y="2486025"/>
           <a:ext cx="6800850" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>391432</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A125933D-49C0-488D-853A-2876796D2CAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="733425"/>
+          <a:ext cx="6496957" cy="1400370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -737,58 +789,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>7</v>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{62AC760F-81AE-4AD5-9233-6B78C1B37251}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -807,17 +857,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64455069-44FA-4F55-873C-D334EDFDF4AD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -853,7 +903,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -866,15 +916,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE67B4D-13A9-47C5-9E23-AE60AC410B8F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
+++ b/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC9E951-77E1-4884-ACF1-F09712420E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B99B501-5A4B-4CFA-ACA2-6255D1B1C5B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Link Video học" sheetId="1" r:id="rId1"/>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE67B4D-13A9-47C5-9E23-AE60AC410B8F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>

--- a/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
+++ b/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B99B501-5A4B-4CFA-ACA2-6255D1B1C5B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9947A504-7109-4905-82C1-CC6FBB49A289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>https://www.youtube.com/watch?v=6ca7Roj_NfE&amp;list=PLPNLZmPSwSkc0jZwYBIxHjACQrq16lJQe</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>sử dụng cho phòng PC đông dương 1</t>
+  </si>
+  <si>
+    <t>pass: gà lại lập trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID: </t>
+  </si>
+  <si>
+    <t>IT@050998</t>
   </si>
 </sst>
 </file>
@@ -792,7 +801,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,9 +832,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="O33" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -836,9 +858,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{62AC760F-81AE-4AD5-9233-6B78C1B37251}"/>
+    <hyperlink ref="H34" r:id="rId2" xr:uid="{EA515A20-BF83-4F7A-87C1-E502721249E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
+++ b/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9947A504-7109-4905-82C1-CC6FBB49A289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB501685-8F34-47AD-9342-F702582B43F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -801,7 +801,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
+++ b/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB501685-8F34-47AD-9342-F702582B43F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF9D1C1-91DC-4167-B7D3-204CFC470355}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>https://www.youtube.com/watch?v=6ca7Roj_NfE&amp;list=PLPNLZmPSwSkc0jZwYBIxHjACQrq16lJQe</t>
   </si>
@@ -56,22 +56,61 @@
     <t>Sẽ đọc File CSS từ trên xuống dưới.</t>
   </si>
   <si>
-    <t>Quên mất không nghĩ ra, ghi chú luôn vào trong File Code cho dễ hiểu.</t>
-  </si>
-  <si>
-    <t>Cách xem Code của một trang Web:</t>
-  </si>
-  <si>
     <t>sử dụng cho phòng PC đông dương 1</t>
   </si>
   <si>
-    <t>pass: gà lại lập trình</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID: </t>
-  </si>
-  <si>
-    <t>IT@050998</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Tạo giao diện trang chủ, phần 2</t>
+  </si>
+  <si>
+    <t>Tạo ra thanh Slider</t>
+  </si>
+  <si>
+    <t>Nảy ra các khái niệm về css.</t>
+  </si>
+  <si>
+    <t>Thiết kế trang chủ</t>
+  </si>
+  <si>
+    <t>Tạo trang danh mục sản phẩm</t>
+  </si>
+  <si>
+    <t>Trang giỏ hàng</t>
+  </si>
+  <si>
+    <t>Trang giao hàng</t>
+  </si>
+  <si>
+    <t>Trang thanh toán.</t>
+  </si>
+  <si>
+    <t>Giao diện</t>
+  </si>
+  <si>
+    <t>Back-end.</t>
+  </si>
+  <si>
+    <t>Đổ dữ liệu ra bằng lệnh PHP.</t>
+  </si>
+  <si>
+    <t>Sử dụng Xamp để giả lập backend.</t>
+  </si>
+  <si>
+    <t>php: ngôn ngữ tương tác với font-end</t>
+  </si>
+  <si>
+    <t>Sao lại tạo ra một trang như wordPress ấy nhỉ</t>
+  </si>
+  <si>
+    <t>Tạo giao diện trang  thêm danh mục.</t>
+  </si>
+  <si>
+    <t>Tạo giao diện trang thêm danh mục.</t>
+  </si>
+  <si>
+    <t>Tạo ra một trang như trang WordPress.</t>
   </si>
 </sst>
 </file>
@@ -139,25 +178,141 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Right Brace 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62AF62D5-B235-4E3A-84A3-B0AD966EF775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="1400175"/>
+          <a:ext cx="723900" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Right Brace 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C20664-BE43-435A-971E-0E9F843CD924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="4019551"/>
+          <a:ext cx="704850" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>162002</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B97C5CE8-CB1B-4532-A8D4-9D2C65951250}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131C2AF3-3181-47D7-8DAC-7A8E66126817}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -173,8 +328,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152401" y="619125"/>
-          <a:ext cx="7181849" cy="3886200"/>
+          <a:off x="4314827" y="4591050"/>
+          <a:ext cx="5457824" cy="523952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -183,139 +338,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09EDE96-2642-46CC-AEF6-441AA069413F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2600325" y="2200274"/>
-          <a:ext cx="2543175" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59006179-C4E9-48FA-84D6-FDF9E484A38D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3152775" y="2419350"/>
-          <a:ext cx="1057276" cy="2419350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171510</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A1598A-FC4C-435E-8C6C-307A3DA52EBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99EA30DC-B03F-4745-8311-C6A4D30CAC82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -331,8 +372,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="2486025"/>
-          <a:ext cx="6800850" cy="1857375"/>
+          <a:off x="95250" y="4019550"/>
+          <a:ext cx="428625" cy="342960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -343,23 +384,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>391432</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38295</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A125933D-49C0-488D-853A-2876796D2CAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2C131C-01D9-460E-8319-C4D8BFE956B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -375,8 +416,127 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7915275" y="733425"/>
-          <a:ext cx="6496957" cy="1400370"/>
+          <a:off x="1962150" y="5629275"/>
+          <a:ext cx="8086725" cy="3895725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074E50A3-94DF-451D-8302-CD957F879DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="9744075"/>
+          <a:ext cx="2114550" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Tạo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ra trang như trang wordpress</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>134077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C560B55A-ADBE-4997-A14D-A381DC74E3B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115551" y="5400675"/>
+          <a:ext cx="7191374" cy="5210902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,15 +958,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -814,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -822,33 +986,93 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="O33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -858,10 +1082,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{62AC760F-81AE-4AD5-9233-6B78C1B37251}"/>
-    <hyperlink ref="H34" r:id="rId2" xr:uid="{EA515A20-BF83-4F7A-87C1-E502721249E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
+++ b/Quy trình để tạo ra trang Web(Dự án cụ thể).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF9D1C1-91DC-4167-B7D3-204CFC470355}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17B23C6-4B1C-496B-8B09-01CA6949F6DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>https://www.youtube.com/watch?v=6ca7Roj_NfE&amp;list=PLPNLZmPSwSkc0jZwYBIxHjACQrq16lJQe</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>Tạo ra một trang như trang WordPress.</t>
+  </si>
+  <si>
+    <t>Đổ cơ sở dữ liệu ra.</t>
+  </si>
+  <si>
+    <t>Hosting Server.</t>
+  </si>
+  <si>
+    <t>Link học:</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wGf-SVWj0yY&amp;list=PLPNDi-wPpMzgEZnBnAAijM-SS7SidP2jr&amp;index=10</t>
   </si>
 </sst>
 </file>
@@ -958,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,17 +1086,36 @@
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1" xr:uid="{62AC760F-81AE-4AD5-9233-6B78C1B37251}"/>
+    <hyperlink ref="C60" r:id="rId2" xr:uid="{67277066-BCA4-486B-8E67-D9AEFE4DEED8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
